--- a/_pages/deployment/toolkit/files/111_to_UTC_Care_Connect-Operational_Test_Plan.xlsx
+++ b/_pages/deployment/toolkit/files/111_to_UTC_Care_Connect-Operational_Test_Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23120"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barry\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{3EECC858-8DD4-40E1-89FE-631F4FBA60C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{17B9741D-05CF-4A77-BDC3-54F945657322}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{3EECC858-8DD4-40E1-89FE-631F4FBA60C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C26A1B71-992F-46A2-BF11-674852DD5472}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4CEEB2E-5AA0-4F31-889F-21028C9EEB39}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
   <si>
     <t>111 to UTC (Care Connect) Operational Test Plan</t>
   </si>
@@ -62,9 +62,6 @@
     <t>UTC IT System</t>
   </si>
   <si>
-    <t>EMIS Symphony</t>
-  </si>
-  <si>
     <t>Testing Date &amp; Time</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
   </si>
   <si>
     <t>111 IT System</t>
-  </si>
-  <si>
-    <t>Cleo</t>
   </si>
   <si>
     <t>UTC Details</t>
@@ -288,6 +282,12 @@
     <t>Is the user able to change/re-book the appointment after the consultation is complete (the patient calls back in 2 hours)?</t>
   </si>
   <si>
+    <t>When the UTC cancels a slot locally the slot is available again to book at the 111</t>
+  </si>
+  <si>
+    <t>Slot becomes available and can be booked</t>
+  </si>
+  <si>
     <t>Is the user able to cancel the appointment after the consultation is complete (the patient calls back in 2 hours)?</t>
   </si>
   <si>
@@ -322,25 +322,52 @@
     <t>* DRAFT IN PROGRESS *</t>
   </si>
   <si>
+    <t>Consumer service makes booking</t>
+  </si>
+  <si>
     <t>Booking is received correctly</t>
   </si>
   <si>
+    <t>Consumer service makes referral</t>
+  </si>
+  <si>
     <t>Referral is received correctly (eg ITK or email)</t>
   </si>
   <si>
-    <t>Booking is changed</t>
+    <t>User can access a referral easily from a booking</t>
+  </si>
+  <si>
+    <t>Booking and Referral are linked together</t>
+  </si>
+  <si>
+    <t>Consumer system cancels a booking</t>
   </si>
   <si>
     <t>Booking is cancelled</t>
   </si>
   <si>
+    <t>User "arrives" patient in the system</t>
+  </si>
+  <si>
     <t>Patient can be 'arrived'</t>
   </si>
   <si>
+    <t>User cancels locally an appointment that has been booked by 111 service</t>
+  </si>
+  <si>
     <t>Appointment can be cancelled at the UTC</t>
   </si>
   <si>
-    <t>Appointment can be moved/rebooked at the UTC</t>
+    <t>Slot released by UTC in test 8 is again visible to 111 service</t>
+  </si>
+  <si>
+    <t>111 service performs a "rebook" operational acrion</t>
+  </si>
+  <si>
+    <t>New appointment is booked and the original appointment is cancelled</t>
+  </si>
+  <si>
+    <t>Please record the test case/episode number/reference here</t>
   </si>
 </sst>
 </file>
@@ -446,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1071,6 +1098,71 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -1079,45 +1171,6 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1127,7 +1180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1300,197 +1353,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1501,20 +1365,218 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1975,13 +2037,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2345,10 +2407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F3F267-1628-40A7-9274-FBCE3897523C}">
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2376,44 +2438,44 @@
       <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:15" s="21" customFormat="1" ht="21">
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="136"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="90"/>
     </row>
     <row r="5" spans="1:15" s="21" customFormat="1">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="108"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:15" s="21" customFormat="1">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="108"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
     </row>
     <row r="7" spans="1:15" s="21" customFormat="1">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="108"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="93"/>
     </row>
     <row r="8" spans="1:15" s="21" customFormat="1">
       <c r="B8" s="23" t="s">
@@ -2426,24 +2488,24 @@
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:15" s="21" customFormat="1">
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="108"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="93"/>
     </row>
     <row r="10" spans="1:15" s="21" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="139"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="96"/>
       <c r="O10" s="26"/>
     </row>
     <row r="11" spans="1:15" s="21" customFormat="1" ht="15.75" thickBot="1">
@@ -2452,49 +2514,47 @@
       <c r="O11" s="26"/>
     </row>
     <row r="12" spans="1:15" s="21" customFormat="1" ht="21">
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="111"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="87"/>
       <c r="O12" s="26"/>
     </row>
     <row r="13" spans="1:15" s="21" customFormat="1">
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85" t="s">
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105"/>
+      <c r="O13" s="26"/>
+    </row>
+    <row r="14" spans="1:15" s="21" customFormat="1">
+      <c r="B14" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
-      <c r="O13" s="26"/>
-    </row>
-    <row r="14" spans="1:15" s="21" customFormat="1">
-      <c r="B14" s="83" t="s">
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105"/>
+      <c r="O14" s="26"/>
+    </row>
+    <row r="15" spans="1:15" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B15" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="87"/>
-      <c r="O14" s="26"/>
-    </row>
-    <row r="15" spans="1:15" s="21" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B15" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="92"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="110"/>
       <c r="O15" s="26"/>
     </row>
     <row r="16" spans="1:15" s="21" customFormat="1" ht="15.75" thickBot="1">
@@ -2507,49 +2567,47 @@
       <c r="O16" s="26"/>
     </row>
     <row r="17" spans="2:15" s="21" customFormat="1" ht="21">
-      <c r="B17" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="111"/>
+      <c r="B17" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="87"/>
       <c r="O17" s="26"/>
     </row>
     <row r="18" spans="2:15" s="21" customFormat="1">
-      <c r="B18" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="87"/>
+      <c r="B18" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
       <c r="O18" s="26"/>
     </row>
     <row r="19" spans="2:15" s="21" customFormat="1">
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
+      <c r="O19" s="26"/>
+    </row>
+    <row r="20" spans="2:15" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B20" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="87"/>
-      <c r="O19" s="26"/>
-    </row>
-    <row r="20" spans="2:15" s="21" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B20" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="92"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="110"/>
       <c r="O20" s="26"/>
     </row>
     <row r="21" spans="2:15" s="21" customFormat="1" ht="15.75" thickBot="1">
@@ -2557,84 +2615,84 @@
       <c r="C21" s="20"/>
     </row>
     <row r="22" spans="2:15" s="21" customFormat="1" ht="21">
-      <c r="B22" s="131" t="s">
+      <c r="B22" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="113"/>
+    </row>
+    <row r="23" spans="2:15" s="21" customFormat="1">
+      <c r="B23" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="98"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="100"/>
+    </row>
+    <row r="24" spans="2:15" s="21" customFormat="1">
+      <c r="B24" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="133"/>
-    </row>
-    <row r="23" spans="2:15" s="21" customFormat="1">
-      <c r="B23" s="123" t="s">
+      <c r="C24" s="98"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="100"/>
+    </row>
+    <row r="25" spans="2:15" s="21" customFormat="1">
+      <c r="B25" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="124"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="130"/>
-    </row>
-    <row r="24" spans="2:15" s="21" customFormat="1">
-      <c r="B24" s="123" t="s">
+      <c r="C25" s="98"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="100"/>
+    </row>
+    <row r="26" spans="2:15" s="21" customFormat="1">
+      <c r="B26" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="124"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="130"/>
-    </row>
-    <row r="25" spans="2:15" s="21" customFormat="1">
-      <c r="B25" s="123" t="s">
+      <c r="C26" s="98"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="100"/>
+    </row>
+    <row r="27" spans="2:15" s="21" customFormat="1">
+      <c r="B27" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="124"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="130"/>
-    </row>
-    <row r="26" spans="2:15" s="21" customFormat="1">
-      <c r="B26" s="123" t="s">
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="100"/>
+    </row>
+    <row r="28" spans="2:15" s="21" customFormat="1">
+      <c r="B28" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="124"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="130"/>
-    </row>
-    <row r="27" spans="2:15" s="21" customFormat="1">
-      <c r="B27" s="123" t="s">
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="100"/>
+    </row>
+    <row r="29" spans="2:15" s="21" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B29" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="124"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="130"/>
-    </row>
-    <row r="28" spans="2:15" s="21" customFormat="1">
-      <c r="B28" s="123" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="124"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="130"/>
-    </row>
-    <row r="29" spans="2:15" s="21" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B29" s="125" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="126"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="128"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="117"/>
     </row>
     <row r="30" spans="2:15" s="21" customFormat="1">
       <c r="B30" s="29"/>
@@ -2654,140 +2712,140 @@
     </row>
     <row r="32" spans="2:15" s="21" customFormat="1" ht="21">
       <c r="B32" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="G32" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="33" t="s">
+    </row>
+    <row r="33" spans="2:7" s="21" customFormat="1">
+      <c r="B33" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" s="21" customFormat="1">
-      <c r="B33" s="149" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="124"/>
+      <c r="C33" s="98"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
       <c r="F33" s="36"/>
       <c r="G33" s="37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="2:7" s="21" customFormat="1">
-      <c r="B34" s="123" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="124"/>
+      <c r="B34" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="98"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
       <c r="F34" s="36"/>
       <c r="G34" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" s="21" customFormat="1">
+      <c r="B35" s="97" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" s="21" customFormat="1">
-      <c r="B35" s="123" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="124"/>
+      <c r="C35" s="98"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
       <c r="F35" s="36"/>
       <c r="G35" s="37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="2:7" s="21" customFormat="1">
-      <c r="B36" s="123" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="124"/>
+      <c r="B36" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="98"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
       <c r="F36" s="36"/>
       <c r="G36" s="37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:7" s="21" customFormat="1">
-      <c r="B37" s="123" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="124"/>
+      <c r="B37" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="98"/>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
       <c r="F37" s="36"/>
       <c r="G37" s="37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:7" s="21" customFormat="1">
-      <c r="B38" s="123" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="124"/>
+      <c r="B38" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="98"/>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
       <c r="F38" s="36"/>
       <c r="G38" s="37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" s="21" customFormat="1">
+      <c r="B39" s="97" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" s="21" customFormat="1">
-      <c r="B39" s="123" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="124"/>
+      <c r="C39" s="98"/>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
       <c r="F39" s="36"/>
       <c r="G39" s="37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:7" s="21" customFormat="1">
-      <c r="B40" s="123" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="124"/>
+      <c r="B40" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="98"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
       <c r="F40" s="36"/>
       <c r="G40" s="37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="2:7" s="21" customFormat="1">
-      <c r="B41" s="123" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="124"/>
+      <c r="B41" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="98"/>
       <c r="D41" s="35"/>
       <c r="E41" s="38"/>
       <c r="F41" s="36"/>
       <c r="G41" s="37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="2:7" s="21" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B42" s="125" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="126"/>
+      <c r="B42" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="115"/>
       <c r="D42" s="39"/>
       <c r="E42" s="39"/>
       <c r="F42" s="40"/>
       <c r="G42" s="41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="2:7" s="21" customFormat="1">
@@ -2795,169 +2853,169 @@
       <c r="C43" s="20"/>
     </row>
     <row r="44" spans="2:7" s="21" customFormat="1" ht="18.75">
-      <c r="B44" s="114" t="s">
+      <c r="B44" s="119" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="120"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="121"/>
+    </row>
+    <row r="45" spans="2:7" s="21" customFormat="1">
+      <c r="B45" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="102"/>
+      <c r="D45" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="116"/>
-    </row>
-    <row r="45" spans="2:7" s="21" customFormat="1">
-      <c r="B45" s="83" t="s">
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="105"/>
+    </row>
+    <row r="46" spans="2:7" s="21" customFormat="1">
+      <c r="B46" s="122"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="123"/>
+    </row>
+    <row r="47" spans="2:7" s="21" customFormat="1">
+      <c r="B47" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="84"/>
-      <c r="D45" s="85" t="s">
+      <c r="C47" s="125"/>
+      <c r="D47" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="87"/>
-    </row>
-    <row r="46" spans="2:7" s="21" customFormat="1">
-      <c r="B46" s="117"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="118"/>
-    </row>
-    <row r="47" spans="2:7" s="21" customFormat="1">
-      <c r="B47" s="119" t="s">
+      <c r="E47" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="120"/>
-      <c r="D47" s="42" t="s">
+      <c r="F47" s="127"/>
+      <c r="G47" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="121" t="s">
+    </row>
+    <row r="48" spans="2:7" s="21" customFormat="1">
+      <c r="B48" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="122"/>
-      <c r="G47" s="43" t="s">
+      <c r="C48" s="102"/>
+      <c r="D48" s="44" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" s="21" customFormat="1">
-      <c r="B48" s="83" t="s">
+      <c r="E48" s="103"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="45"/>
+    </row>
+    <row r="49" spans="2:7" s="21" customFormat="1">
+      <c r="B49" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="84"/>
-      <c r="D48" s="44" t="s">
+      <c r="C49" s="102"/>
+      <c r="D49" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="85"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="45"/>
-    </row>
-    <row r="49" spans="2:7" s="21" customFormat="1">
-      <c r="B49" s="83" t="s">
+      <c r="E49" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="84"/>
-      <c r="D49" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="F49" s="112"/>
+      <c r="F49" s="128"/>
       <c r="G49" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="2:7" s="21" customFormat="1">
-      <c r="B50" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="84"/>
+      <c r="B50" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="102"/>
       <c r="D50" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="112"/>
+        <v>46</v>
+      </c>
+      <c r="E50" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="128"/>
       <c r="G50" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="2:7" s="21" customFormat="1">
-      <c r="B51" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="84"/>
+      <c r="B51" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="102"/>
       <c r="D51" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" s="112"/>
+        <v>46</v>
+      </c>
+      <c r="E51" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="128"/>
       <c r="G51" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="2:7" s="21" customFormat="1">
-      <c r="B52" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="84"/>
+      <c r="B52" s="101" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="102"/>
       <c r="D52" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="F52" s="112"/>
+        <v>46</v>
+      </c>
+      <c r="E52" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="128"/>
       <c r="G52" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="2:7" s="21" customFormat="1">
-      <c r="B53" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="84"/>
+      <c r="B53" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="102"/>
       <c r="D53" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="112"/>
+        <v>46</v>
+      </c>
+      <c r="E53" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="128"/>
       <c r="G53" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="2:7" s="21" customFormat="1">
-      <c r="B54" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="84"/>
+      <c r="B54" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="102"/>
       <c r="D54" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="F54" s="112"/>
+        <v>53</v>
+      </c>
+      <c r="E54" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="128"/>
       <c r="G54" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="2:7" s="21" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B55" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="89"/>
+      <c r="B55" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="107"/>
       <c r="D55" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="98"/>
-      <c r="F55" s="113"/>
+        <v>44</v>
+      </c>
+      <c r="E55" s="129"/>
+      <c r="F55" s="130"/>
       <c r="G55" s="47"/>
     </row>
     <row r="56" spans="2:7" s="21" customFormat="1" ht="15.75" thickBot="1">
@@ -2969,63 +3027,63 @@
       <c r="G56" s="49"/>
     </row>
     <row r="57" spans="2:7" s="21" customFormat="1" ht="21">
-      <c r="B57" s="109" t="s">
+      <c r="B57" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="87"/>
+    </row>
+    <row r="58" spans="2:7" s="21" customFormat="1">
+      <c r="B58" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="102"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="105"/>
+    </row>
+    <row r="59" spans="2:7" s="21" customFormat="1">
+      <c r="B59" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="110"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="110"/>
-      <c r="F57" s="110"/>
-      <c r="G57" s="111"/>
-    </row>
-    <row r="58" spans="2:7" s="21" customFormat="1">
-      <c r="B58" s="83" t="s">
+      <c r="C59" s="102"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="105"/>
+    </row>
+    <row r="60" spans="2:7" s="21" customFormat="1">
+      <c r="B60" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="84"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="87"/>
-    </row>
-    <row r="59" spans="2:7" s="21" customFormat="1">
-      <c r="B59" s="83" t="s">
+      <c r="C60" s="102"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="105"/>
+    </row>
+    <row r="61" spans="2:7" s="21" customFormat="1">
+      <c r="B61" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="84"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="87"/>
-    </row>
-    <row r="60" spans="2:7" s="21" customFormat="1">
-      <c r="B60" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="84"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="87"/>
-    </row>
-    <row r="61" spans="2:7" s="21" customFormat="1">
-      <c r="B61" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="84"/>
-      <c r="D61" s="85">
+      <c r="C61" s="102"/>
+      <c r="D61" s="103">
         <f>D27</f>
         <v>0</v>
       </c>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="87"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="105"/>
     </row>
     <row r="62" spans="2:7" s="21" customFormat="1">
-      <c r="B62" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="97"/>
+      <c r="B62" s="136" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="137"/>
       <c r="D62" s="50">
         <f>D28</f>
         <v>0</v>
@@ -3035,14 +3093,14 @@
       <c r="G62" s="52"/>
     </row>
     <row r="63" spans="2:7" s="21" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B63" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="89"/>
-      <c r="D63" s="98"/>
-      <c r="E63" s="99"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="100"/>
+      <c r="B63" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="107"/>
+      <c r="D63" s="129"/>
+      <c r="E63" s="138"/>
+      <c r="F63" s="138"/>
+      <c r="G63" s="139"/>
     </row>
     <row r="64" spans="2:7" s="21" customFormat="1">
       <c r="B64" s="29"/>
@@ -3059,9 +3117,9 @@
       <c r="F65" s="56"/>
       <c r="G65" s="57"/>
     </row>
-    <row r="66" spans="2:7" s="143" customFormat="1" ht="21">
-      <c r="B66" s="144" t="s">
-        <v>64</v>
+    <row r="66" spans="2:7" s="80" customFormat="1" ht="21">
+      <c r="B66" s="81" t="s">
+        <v>62</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="4"/>
@@ -3078,399 +3136,491 @@
       <c r="G67" s="6"/>
     </row>
     <row r="68" spans="2:7" s="2" customFormat="1" ht="21">
-      <c r="B68" s="101"/>
-      <c r="C68" s="102"/>
-      <c r="D68" s="102"/>
-      <c r="E68" s="102"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="103"/>
+      <c r="B68" s="140"/>
+      <c r="C68" s="141"/>
+      <c r="D68" s="141"/>
+      <c r="E68" s="141"/>
+      <c r="F68" s="141"/>
+      <c r="G68" s="142"/>
     </row>
     <row r="69" spans="2:7" s="7" customFormat="1" ht="30">
       <c r="B69" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="E69" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="F69" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="G69" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F69" s="10" t="s">
+    </row>
+    <row r="70" spans="2:7" s="7" customFormat="1" ht="30">
+      <c r="B70" s="143" t="s">
         <v>69</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" s="7" customFormat="1" ht="30">
-      <c r="B70" s="104" t="s">
-        <v>71</v>
       </c>
       <c r="C70" s="12">
         <v>1</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="14"/>
     </row>
     <row r="71" spans="2:7" s="7" customFormat="1" ht="45">
-      <c r="B71" s="104"/>
+      <c r="B71" s="143"/>
       <c r="C71" s="12">
         <v>2</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="14"/>
     </row>
     <row r="72" spans="2:7" s="7" customFormat="1" ht="45">
-      <c r="B72" s="104"/>
+      <c r="B72" s="143"/>
       <c r="C72" s="12">
         <v>3</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F72" s="13"/>
       <c r="G72" s="14"/>
     </row>
     <row r="73" spans="2:7" s="7" customFormat="1" ht="45">
-      <c r="B73" s="104"/>
+      <c r="B73" s="143"/>
       <c r="C73" s="12">
         <v>4</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="14"/>
     </row>
     <row r="74" spans="2:7" s="7" customFormat="1" ht="75">
-      <c r="B74" s="104"/>
+      <c r="B74" s="143"/>
       <c r="C74" s="12">
         <v>5</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="14"/>
     </row>
     <row r="75" spans="2:7" s="7" customFormat="1" ht="75">
-      <c r="B75" s="104"/>
+      <c r="B75" s="143"/>
       <c r="C75" s="12">
         <v>7</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F75" s="13"/>
       <c r="G75" s="14"/>
     </row>
     <row r="76" spans="2:7" s="7" customFormat="1" ht="75">
-      <c r="B76" s="104"/>
+      <c r="B76" s="143"/>
       <c r="C76" s="12">
         <v>8</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F76" s="13"/>
       <c r="G76" s="14"/>
     </row>
-    <row r="77" spans="2:7" s="7" customFormat="1" ht="75">
-      <c r="B77" s="104"/>
+    <row r="77" spans="2:7" s="7" customFormat="1" ht="30">
+      <c r="B77" s="143"/>
       <c r="C77" s="12">
         <v>9</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="14"/>
     </row>
-    <row r="78" spans="2:7" s="7" customFormat="1" ht="30">
-      <c r="B78" s="104"/>
+    <row r="78" spans="2:7" s="7" customFormat="1" ht="75">
+      <c r="B78" s="143"/>
       <c r="C78" s="12">
         <v>10</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="14"/>
     </row>
     <row r="79" spans="2:7" s="7" customFormat="1" ht="30">
-      <c r="B79" s="104"/>
+      <c r="B79" s="143"/>
       <c r="C79" s="12">
         <v>11</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F79" s="13"/>
       <c r="G79" s="14"/>
     </row>
-    <row r="80" spans="2:7" s="7" customFormat="1">
-      <c r="B80" s="145"/>
-      <c r="C80" s="146">
+    <row r="80" spans="2:7" s="7" customFormat="1" ht="30">
+      <c r="B80" s="143"/>
+      <c r="C80" s="12">
         <v>12</v>
       </c>
-      <c r="D80" s="147" t="s">
+      <c r="D80" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F80" s="13"/>
+      <c r="G80" s="14"/>
+    </row>
+    <row r="81" spans="2:7" s="7" customFormat="1">
+      <c r="B81" s="144"/>
+      <c r="C81" s="82">
+        <v>13</v>
+      </c>
+      <c r="D81" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="E80" s="147"/>
-      <c r="F80" s="147"/>
-      <c r="G80" s="148"/>
-    </row>
-    <row r="81" spans="2:7" s="2" customFormat="1" ht="30">
-      <c r="B81" s="105"/>
-      <c r="C81" s="15">
-        <v>13</v>
-      </c>
-      <c r="D81" s="16" t="s">
+      <c r="E81" s="83"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="84"/>
+    </row>
+    <row r="82" spans="2:7" s="2" customFormat="1" ht="30">
+      <c r="B82" s="145"/>
+      <c r="C82" s="15">
+        <v>14</v>
+      </c>
+      <c r="D82" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E82" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F81" s="16"/>
-      <c r="G81" s="17"/>
-    </row>
-    <row r="82" spans="2:7" s="2" customFormat="1">
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-    </row>
-    <row r="83" spans="2:7" s="58" customFormat="1">
-      <c r="B83" s="142"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="62"/>
-    </row>
-    <row r="84" spans="2:7" s="140" customFormat="1" ht="21">
-      <c r="B84" s="141" t="s">
+      <c r="F82" s="16"/>
+      <c r="G82" s="17"/>
+    </row>
+    <row r="83" spans="2:7" s="2" customFormat="1">
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+    </row>
+    <row r="84" spans="2:7" s="58" customFormat="1">
+      <c r="B84" s="79"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="62"/>
+    </row>
+    <row r="85" spans="2:7" s="77" customFormat="1" ht="21">
+      <c r="B85" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="64"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="F84" s="66"/>
-      <c r="G84" s="67"/>
-    </row>
-    <row r="85" spans="2:7" s="63" customFormat="1">
-      <c r="B85" s="64"/>
       <c r="C85" s="64"/>
       <c r="D85" s="65"/>
-      <c r="E85" s="66"/>
+      <c r="E85" s="66" t="s">
+        <v>94</v>
+      </c>
       <c r="F85" s="66"/>
       <c r="G85" s="67"/>
     </row>
-    <row r="86" spans="2:7" s="63" customFormat="1" ht="21">
-      <c r="B86" s="93"/>
-      <c r="C86" s="94"/>
-      <c r="D86" s="94"/>
-      <c r="E86" s="94"/>
-      <c r="F86" s="94"/>
-      <c r="G86" s="95"/>
-    </row>
-    <row r="87" spans="2:7" s="68" customFormat="1" ht="30">
-      <c r="B87" s="69" t="s">
+    <row r="86" spans="2:7" s="63" customFormat="1">
+      <c r="B86" s="64"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="67"/>
+    </row>
+    <row r="87" spans="2:7" s="63" customFormat="1" ht="21">
+      <c r="B87" s="133"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="134"/>
+      <c r="E87" s="134"/>
+      <c r="F87" s="134"/>
+      <c r="G87" s="135"/>
+    </row>
+    <row r="88" spans="2:7" s="68" customFormat="1" ht="30">
+      <c r="B88" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="C87" s="70" t="s">
+      <c r="E88" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="D87" s="71" t="s">
+      <c r="F88" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="E87" s="71" t="s">
+      <c r="G88" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="F87" s="71" t="s">
+    </row>
+    <row r="89" spans="2:7" s="68" customFormat="1">
+      <c r="B89" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="G87" s="72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" s="68" customFormat="1">
-      <c r="B88" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="C88" s="73">
+      <c r="C89" s="73">
         <v>1</v>
       </c>
-      <c r="D88" s="74"/>
-      <c r="E88" s="74" t="s">
+      <c r="D89" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="F88" s="74"/>
-      <c r="G88" s="75"/>
-    </row>
-    <row r="89" spans="2:7" s="68" customFormat="1" ht="30">
-      <c r="B89" s="81"/>
-      <c r="C89" s="73">
-        <v>2</v>
-      </c>
-      <c r="D89" s="74"/>
       <c r="E89" s="74" t="s">
         <v>96</v>
       </c>
       <c r="F89" s="74"/>
       <c r="G89" s="75"/>
     </row>
-    <row r="90" spans="2:7" s="68" customFormat="1">
-      <c r="B90" s="81"/>
+    <row r="90" spans="2:7" s="68" customFormat="1" ht="30">
+      <c r="B90" s="132"/>
       <c r="C90" s="73">
-        <v>3</v>
-      </c>
-      <c r="D90" s="74"/>
+        <v>2</v>
+      </c>
+      <c r="D90" s="74" t="s">
+        <v>97</v>
+      </c>
       <c r="E90" s="74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F90" s="74"/>
       <c r="G90" s="75"/>
     </row>
-    <row r="91" spans="2:7" s="68" customFormat="1">
-      <c r="B91" s="81"/>
-      <c r="C91" s="73">
-        <v>4</v>
-      </c>
-      <c r="D91" s="74"/>
+    <row r="91" spans="2:7" s="68" customFormat="1" ht="30">
+      <c r="B91" s="132"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="74" t="s">
+        <v>99</v>
+      </c>
       <c r="E91" s="74" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F91" s="74"/>
       <c r="G91" s="75"/>
     </row>
     <row r="92" spans="2:7" s="68" customFormat="1">
-      <c r="B92" s="81"/>
+      <c r="B92" s="132"/>
       <c r="C92" s="73">
-        <v>5</v>
-      </c>
-      <c r="D92" s="74"/>
+        <v>4</v>
+      </c>
+      <c r="D92" s="74" t="s">
+        <v>101</v>
+      </c>
       <c r="E92" s="74" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F92" s="74"/>
       <c r="G92" s="75"/>
     </row>
     <row r="93" spans="2:7" s="68" customFormat="1">
-      <c r="B93" s="81"/>
+      <c r="B93" s="132"/>
       <c r="C93" s="73">
-        <v>7</v>
-      </c>
-      <c r="D93" s="74"/>
+        <v>5</v>
+      </c>
+      <c r="D93" s="74" t="s">
+        <v>103</v>
+      </c>
       <c r="E93" s="74" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F93" s="74"/>
       <c r="G93" s="75"/>
     </row>
     <row r="94" spans="2:7" s="68" customFormat="1" ht="30">
-      <c r="B94" s="81"/>
+      <c r="B94" s="132"/>
       <c r="C94" s="73">
-        <v>8</v>
-      </c>
-      <c r="D94" s="74"/>
+        <v>7</v>
+      </c>
+      <c r="D94" s="74" t="s">
+        <v>105</v>
+      </c>
       <c r="E94" s="74" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F94" s="74"/>
       <c r="G94" s="75"/>
     </row>
-    <row r="95" spans="2:7" s="68" customFormat="1">
-      <c r="B95" s="81"/>
-      <c r="C95" s="73">
+    <row r="95" spans="2:7" s="68" customFormat="1" ht="30">
+      <c r="B95" s="132"/>
+      <c r="C95" s="146">
+        <v>8</v>
+      </c>
+      <c r="D95" s="147" t="s">
+        <v>107</v>
+      </c>
+      <c r="E95" s="147"/>
+      <c r="F95" s="147"/>
+      <c r="G95" s="148"/>
+    </row>
+    <row r="96" spans="2:7" s="68" customFormat="1" ht="30">
+      <c r="B96" s="132"/>
+      <c r="C96" s="146">
         <v>9</v>
       </c>
-      <c r="D95" s="74"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="74"/>
-      <c r="G95" s="75"/>
-    </row>
-    <row r="96" spans="2:7" s="68" customFormat="1">
-      <c r="B96" s="81"/>
-      <c r="C96" s="73">
+      <c r="D96" s="147" t="s">
+        <v>108</v>
+      </c>
+      <c r="E96" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="F96" s="147"/>
+      <c r="G96" s="148"/>
+    </row>
+    <row r="97" spans="2:7" s="68" customFormat="1" ht="30">
+      <c r="B97" s="132"/>
+      <c r="C97" s="73">
         <v>10</v>
       </c>
-      <c r="D96" s="74"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="75"/>
-    </row>
-    <row r="97" spans="2:7" s="68" customFormat="1">
-      <c r="B97" s="81"/>
-      <c r="C97" s="73">
-        <v>11</v>
-      </c>
-      <c r="D97" s="74"/>
-      <c r="E97" s="74"/>
+      <c r="D97" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E97" s="74" t="s">
+        <v>89</v>
+      </c>
       <c r="F97" s="74"/>
       <c r="G97" s="75"/>
     </row>
-    <row r="98" spans="2:7" s="63" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B98" s="82"/>
-      <c r="C98" s="76">
+    <row r="98" spans="2:7" s="68" customFormat="1" ht="30">
+      <c r="B98" s="132"/>
+      <c r="C98" s="73">
+        <v>11</v>
+      </c>
+      <c r="D98" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="E98" s="74"/>
+      <c r="F98" s="74"/>
+      <c r="G98" s="75"/>
+    </row>
+    <row r="99" spans="2:7" s="63" customFormat="1" ht="30">
+      <c r="B99" s="149"/>
+      <c r="C99" s="150">
         <v>12</v>
       </c>
-      <c r="D98" s="77"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="77"/>
-      <c r="G98" s="78"/>
-    </row>
-    <row r="99" spans="2:7" s="63" customFormat="1">
-      <c r="B99" s="79"/>
-      <c r="C99" s="79"/>
+      <c r="D99" s="151" t="s">
+        <v>91</v>
+      </c>
+      <c r="E99" s="151" t="s">
+        <v>92</v>
+      </c>
+      <c r="F99" s="151"/>
+      <c r="G99" s="152"/>
+    </row>
+    <row r="100" spans="2:7" s="63" customFormat="1">
+      <c r="B100" s="76"/>
+      <c r="C100" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B70:B82"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="B13:C13"/>
@@ -3484,70 +3634,16 @@
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="B9:G9"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:G18"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B88:B98"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B70:B81"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3773,6 +3869,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3781,20 +3883,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{801A6441-B1B2-4502-8505-447A6F13B33F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93DB65C5-67CD-4B02-A511-B6FBF8D2F58B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B5820F0-2DCA-40FE-A7B2-54EB995F2818}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B5820F0-2DCA-40FE-A7B2-54EB995F2818}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93DB65C5-67CD-4B02-A511-B6FBF8D2F58B}"/>
 </file>